--- a/src/main/resources/xlsx/pcs/vote_jw.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw.xlsx
@@ -7,17 +7,17 @@
     <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
   </bookViews>
   <sheets>
-    <sheet name="党委委员" sheetId="2" r:id="rId1"/>
+    <sheet name="纪委委员" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">党委委员!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">纪委委员!$3:$3</definedName>
   </definedNames>
-  <calcPr calcId="80000" fullCalcOnLoad="1"/>
+  <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>候选人姓名</t>
   </si>
@@ -71,94 +71,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>本次大会实到代表</t>
+      <t>无效票数
+(模糊无法辨认</t>
     </r>
     <r>
       <rPr>
-        <u/>
-        <sz val="12"/>
+        <b/>
+        <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> jc </t>
+      <t>)</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名，发出选票</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> sv </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张，收回选票</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> bv </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张，其中有效票</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> vc </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张，无效票</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> ic </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张。</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本次大会实到代表 jc 名，发出选票 sv 张，收回选票 bv 张，其中有效票 vc 张，无效票 ic 张。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -166,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -174,17 +111,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -217,17 +143,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +152,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,103 +178,54 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -643,37 +509,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="5" width="16.5" customWidth="1"/>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="16.25" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-    </row>
-    <row r="2" spans="1:5" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>11</v>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
-    </row>
-    <row r="3" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F2" s="10"/>
+    </row>
+    <row r="3" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -689,8 +559,11 @@
       <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
@@ -698,8 +571,9 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -707,8 +581,9 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
@@ -716,8 +591,9 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
@@ -725,8 +601,9 @@
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
@@ -734,8 +611,9 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
@@ -743,8 +621,9 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -752,8 +631,9 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
@@ -761,8 +641,9 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
@@ -770,8 +651,9 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
@@ -779,8 +661,9 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
@@ -788,8 +671,9 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
@@ -797,8 +681,9 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
@@ -806,8 +691,9 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
@@ -815,8 +701,9 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
@@ -824,8 +711,9 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
@@ -833,17 +721,19 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="13"/>
-    </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
         <v>8</v>
       </c>
@@ -854,89 +744,119 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>1</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>2</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D23" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>3</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D24" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>4</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D25" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>5</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="5">
-        <v>6</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
+      <c r="D26" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="D28" s="15" t="s">
+      <c r="B27" s="7"/>
+      <c r="D27" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="30" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+    </row>
+    <row r="28" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="29" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.74803149606299213" right="0.74803149606299213" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageMargins left="0.43307086614173229" right="0.43307086614173229" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>第 &amp;P 页，共 &amp;N 页</oddFooter>

--- a/src/main/resources/xlsx/pcs/vote_jw.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>候选人姓名</t>
   </si>
@@ -35,42 +35,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总监票人：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>另选他人：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总计票人：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">中共北京师范大学第十三届纪律检查委员会委员
-选举结果汇总单
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（按得票多少排序）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>—</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,22 +52,125 @@
   </si>
   <si>
     <r>
-      <t>无效票数
-(模糊无法辨认</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t xml:space="preserve">部分无效票数
+</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="11"/>
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>)</t>
+      <t>(模糊无法辨认)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本次大会实到代表 jc 名，发出选票 sv 张，收回选票 bv 张，其中有效票 vc 张，无效票 ic 张。</t>
+    <t xml:space="preserve">总监票人：                  总计票人：                   汇总计票人：  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共北京师范大学第十三届纪律检查委员会委员
+计票结果报告单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另选人得赞成票数如下（以获得赞成票多少为序）：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   本次选举应到代表268</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名，实到代表</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>jc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>名；发出选票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>sv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张，收回选票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>bv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张，其中有效票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>vc</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张，无效票</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ic</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>张。
+   候选人得票数如下（以获得赞成票多少为序）：</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -133,13 +208,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
+      <b/>
+      <sz val="18"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -213,19 +288,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -511,8 +586,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -524,18 +599,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+    </row>
+    <row r="2" spans="1:6" ht="52.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -545,7 +620,7 @@
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>0</v>
@@ -560,7 +635,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -723,19 +798,19 @@
       <c r="E19" s="3"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+    <row r="20" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
@@ -750,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -760,13 +835,13 @@
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -776,13 +851,13 @@
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -792,13 +867,13 @@
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -808,13 +883,13 @@
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -824,35 +899,33 @@
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="D27" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
     </row>
     <row r="28" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="29" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A27:B27"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A2:F2"/>
     <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="D27:F27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/vote_jw.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>候选人姓名</t>
   </si>
@@ -584,10 +584,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -844,86 +844,22 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="5">
-        <v>2</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="5">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="5">
-        <v>4</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="5">
-        <v>5</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-    </row>
-    <row r="28" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="29" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+    </row>
+    <row r="24" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A20:F20"/>
   </mergeCells>

--- a/src/main/resources/xlsx/pcs/vote_jw.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw.xlsx
@@ -178,7 +178,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -202,13 +202,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -216,6 +209,19 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -272,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -285,10 +291,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -302,6 +305,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -586,8 +598,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -599,24 +611,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="2" spans="1:6" ht="52.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -642,171 +654,171 @@
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="5"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="5"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="5"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="5"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="5"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="5"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="5"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="5"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="5"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="5"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="5"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="5"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="5"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
@@ -832,8 +844,8 @@
       <c r="A22" s="5">
         <v>1</v>
       </c>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
       <c r="D22" s="5" t="s">
         <v>7</v>
       </c>
@@ -845,14 +857,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/src/main/resources/xlsx/pcs/vote_jw.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
@@ -10,14 +10,14 @@
     <sheet name="纪委委员" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">纪委委员!$3:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">纪委委员!$21:$21</definedName>
   </definedNames>
   <calcPr calcId="80000"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>候选人姓名</t>
   </si>
@@ -40,14 +40,6 @@
   </si>
   <si>
     <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>—</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>—</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -79,98 +71,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">   本次选举应到代表268</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名，实到代表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>jc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>名；发出选票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>sv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张，收回选票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>bv</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张，其中有效票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>vc</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张，无效票</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ic</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>张。
+    <t>—</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   本次选举应到代表268名，实到代表jc名；发出选票sv张，收回选票bv张，其中有效票vc张，无效票ic张。
    候选人得票数如下（以获得赞成票多少为序）：</t>
-    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>—</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -213,13 +122,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -291,29 +200,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -598,8 +507,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -611,24 +520,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
+      <c r="A1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="52.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
@@ -647,178 +556,178 @@
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="11"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="11"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="11"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8"/>
     </row>
     <row r="7" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="11"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
     </row>
     <row r="8" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="11"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="11"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
     </row>
     <row r="12" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="11"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="8"/>
     </row>
     <row r="13" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="11"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>11</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="11"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>12</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="11"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>13</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="11"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>14</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="11"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>15</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="11"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="8"/>
     </row>
     <row r="19" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>16</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="11"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="8"/>
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="A20" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
     <row r="21" spans="1:6" s="4" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
@@ -837,43 +746,47 @@
         <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>1</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
+      <c r="B22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="D22" s="5" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
     </row>
     <row r="24" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="25" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A23:F23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/src/main/resources/xlsx/pcs/vote_jw.xlsx
+++ b/src/main/resources/xlsx/pcs/vote_jw.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52DFA4B5-B6C6-4288-8847-091397528590}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="8505" windowHeight="4530"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="22905" windowHeight="11850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="纪委委员" sheetId="2" r:id="rId1"/>
@@ -62,11 +63,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中共北京师范大学第十三届纪律检查委员会委员
-计票结果报告单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>另选人得赞成票数如下（以获得赞成票多少为序）：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,13 +76,18 @@
   </si>
   <si>
     <t>—</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>title
+计票结果报告单</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -503,12 +504,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -521,7 +522,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="2" customFormat="1" ht="72.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -531,7 +532,7 @@
     </row>
     <row r="2" spans="1:6" ht="52.15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
@@ -721,7 +722,7 @@
     </row>
     <row r="20" spans="1:6" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -754,19 +755,19 @@
         <v>1</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
